--- a/src/test/resources/object-repository/OneCSApp.xlsx
+++ b/src/test/resources/object-repository/OneCSApp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3B5935-2054-394B-8C0B-11B15474E50D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C301F-6A96-EA4A-AFAE-DD35F0B017AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -490,6 +490,30 @@
   </si>
   <si>
     <t>//android.widget.TextView[@text='Reports']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SHOWALL_DOWN_ARROW</t>
+  </si>
+  <si>
+    <t>ic_expand_pill</t>
+  </si>
+  <si>
+    <t>portfolio-performance-increase-arrow</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_PERFORMANCE_ARROW</t>
+  </si>
+  <si>
+    <t>portfolio-summary-value-change</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SUMMARY_VALUE_CHANGE_TXT</t>
+  </si>
+  <si>
+    <t>portfolio-summary-refreshed-at-text</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SUMMARY_REFRESH_TIME_TXT</t>
   </si>
 </sst>
 </file>
@@ -864,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,10 +1230,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -1271,7 +1295,40 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
       <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSApp.xlsx
+++ b/src/test/resources/object-repository/OneCSApp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C301F-6A96-EA4A-AFAE-DD35F0B017AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA32B6-2733-4D18-850D-DC9B790AB81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -38,57 +38,6 @@
     <t>VALUE_TYPE</t>
   </si>
   <si>
-    <t>io.selendroid.testapp:id/buttonTest</t>
-  </si>
-  <si>
-    <t>ENBUTTON</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/buttonStartWebview</t>
-  </si>
-  <si>
-    <t>BROWSER_BTN</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/my_text_field</t>
-  </si>
-  <si>
-    <t>EDIT_TXT_FIELD</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/waitingButtonTest</t>
-  </si>
-  <si>
-    <t>SHOW_PROGRESS_BAR_BTN</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/input_adds_check_box</t>
-  </si>
-  <si>
-    <t>I_ACCEPT_ADDS_CHKBOX</t>
-  </si>
-  <si>
-    <t>DISPLAY_TXT_VIEW_BTN</t>
-  </si>
-  <si>
-    <t>TXT_SOMETIMES_DISPLAYED_TXT</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/showToastButton</t>
-  </si>
-  <si>
-    <t>DISPLAY_A_TOAST_BTN</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/showPopupWindowButton</t>
-  </si>
-  <si>
-    <t>DISPLAY_POP_UP_WINDOW_BTN</t>
-  </si>
-  <si>
-    <t>device-id</t>
-  </si>
-  <si>
     <t>device-xpath</t>
   </si>
   <si>
@@ -284,31 +233,13 @@
     <t>A short, complete sentence that gives overview of the error.</t>
   </si>
   <si>
-    <t>//android.widget.Button[@resource-id='io.selendroid.testapp:id/visibleButtonTest']</t>
-  </si>
-  <si>
-    <t>(//android.widget.LinearLayout[@content-desc="visibleTestAreaCD"])[1]/android.widget.TextView</t>
-  </si>
-  <si>
-    <t>START_REGISTRATION_BTN</t>
-  </si>
-  <si>
-    <t>io.selendroid.testapp:id/startUserRegistration</t>
-  </si>
-  <si>
     <t>SIGN_IN</t>
   </si>
   <si>
     <t>//android.widget.Button[@index='1']</t>
   </si>
   <si>
-    <t>Incorrect_Username</t>
-  </si>
-  <si>
     <t>(//android.widget.EditText)[1]</t>
-  </si>
-  <si>
-    <t>Incorrect_Password</t>
   </si>
   <si>
     <t>(//android.widget.EditText)[2]</t>
@@ -514,6 +445,120 @@
   </si>
   <si>
     <t>PORTFOLIO_SUMMARY_REFRESH_TIME_TXT</t>
+  </si>
+  <si>
+    <t>Charles Stanley logo</t>
+  </si>
+  <si>
+    <t>CHARLES_STANLEY</t>
+  </si>
+  <si>
+    <t>CREATE_SECURE_FIANACIAL</t>
+  </si>
+  <si>
+    <t>Create a secure financial future</t>
+  </si>
+  <si>
+    <t>DON’T_HAVE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>(//android.widget.TextView)[2]</t>
+  </si>
+  <si>
+    <t>CREATE_ONE_ON_OUR_WEBSITE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Create one on our website']</t>
+  </si>
+  <si>
+    <t>DEVICE_URL</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@text='https://www.charles-stanley.co.uk/services/save']</t>
+  </si>
+  <si>
+    <t>WELCOME_SCREEN</t>
+  </si>
+  <si>
+    <t>SIGN_IN_STEP_1_OF_4</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Sign in step 1 of 4']</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>X_Button</t>
+  </si>
+  <si>
+    <t>Step1_of_4</t>
+  </si>
+  <si>
+    <t>//android.widget.ProgressBar[@text='0.25']</t>
+  </si>
+  <si>
+    <t>USERNAME_PASSWORD</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Username &amp; password']</t>
+  </si>
+  <si>
+    <t>PLEASE_ENTER_USERNAME</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Please enter your username and password associated with your Charles Stanley account.']</t>
+  </si>
+  <si>
+    <t>USERNAME_TEXT</t>
+  </si>
+  <si>
+    <t>PASSWORD_TEXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Username']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Password']</t>
+  </si>
+  <si>
+    <t>USERNAME_FIELD_EMPTY</t>
+  </si>
+  <si>
+    <t>PASSWORD_FIELD_EMPTY</t>
+  </si>
+  <si>
+    <t>(//android.view.View)[8]</t>
+  </si>
+  <si>
+    <t>(//android.view.View)[9]</t>
+  </si>
+  <si>
+    <t>DETAILS_INCORRECT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Details incorrect']</t>
+  </si>
+  <si>
+    <t>EDIT_DETAILS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Edit details"]</t>
+  </si>
+  <si>
+    <t>USERNAME_INPUT_FIELD</t>
+  </si>
+  <si>
+    <t>PASSWORD_INPUT_FIELD</t>
+  </si>
+  <si>
+    <t>Eye_Icon</t>
+  </si>
+  <si>
+    <t>Step2_of_4</t>
+  </si>
+  <si>
+    <t>//android.widget.ProgressBar[@text='0.5']</t>
   </si>
 </sst>
 </file>
@@ -890,20 +935,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,416 +965,416 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
       <c r="E35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1339,20 +1384,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,488 +1414,602 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>101</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>113</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>123</v>
       </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B31" t="s">
         <v>124</v>
       </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
         <v>126</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>127</v>
       </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>128</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>131</v>
       </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>132</v>
       </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
       <c r="E35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
         <v>141</v>
       </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
       <c r="E41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/object-repository/OneCSApp.xlsx
+++ b/src/test/resources/object-repository/OneCSApp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA32B6-2733-4D18-850D-DC9B790AB81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981E8C1-5EDA-47F6-B70E-F5F960474629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="200">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -474,9 +474,6 @@
     <t>DEVICE_URL</t>
   </si>
   <si>
-    <t>//android.widget.EditText[@text='https://www.charles-stanley.co.uk/services/save']</t>
-  </si>
-  <si>
     <t>WELCOME_SCREEN</t>
   </si>
   <si>
@@ -559,6 +556,72 @@
   </si>
   <si>
     <t>//android.widget.ProgressBar[@text='0.5']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Forgot sign in details? Not to worry, just tap the relevant button below to fix this."]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Forgot username"]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Forgot password"]</t>
+  </si>
+  <si>
+    <t>FORGOT_USERNAME</t>
+  </si>
+  <si>
+    <t>FORGOT_PASSWORD</t>
+  </si>
+  <si>
+    <t>FORGOT_SIGN_IN_DETAILS</t>
+  </si>
+  <si>
+    <t>I_need_help_in_entering_details</t>
+  </si>
+  <si>
+    <t>Close sheet</t>
+  </si>
+  <si>
+    <t>DARK_SPACE</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='Date Of Birth']</t>
+  </si>
+  <si>
+    <t>WEB_DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='Account Number']</t>
+  </si>
+  <si>
+    <t>WEB_ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>LOG_IN</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='Username']</t>
+  </si>
+  <si>
+    <t>WEB_PASS_USERNAME</t>
+  </si>
+  <si>
+    <t>WEB_PASS_NEXT</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='Next']</t>
+  </si>
+  <si>
+    <t>FORGOT_USERNAME_PASSWORD</t>
+  </si>
+  <si>
+    <t>CLOSED_EYE</t>
+  </si>
+  <si>
+    <t>(//android.widget.Button)[3]</t>
+  </si>
+  <si>
+    <t>INFO_BUTTON</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1490,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1438,7 +1501,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -1837,7 +1900,7 @@
         <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1845,7 +1908,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>141</v>
@@ -1856,10 +1919,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
         <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1867,10 +1930,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1878,10 +1941,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
         <v>156</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1889,10 +1952,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
         <v>158</v>
-      </c>
-      <c r="B45" t="s">
-        <v>159</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1900,10 +1963,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
         <v>160</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1911,10 +1974,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1922,10 +1985,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1933,10 +1996,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1944,10 +2007,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -1955,10 +2018,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
         <v>170</v>
-      </c>
-      <c r="B51" t="s">
-        <v>171</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -1966,10 +2029,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" t="s">
         <v>172</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1977,7 +2040,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
         <v>97</v>
@@ -1988,28 +2051,161 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
         <v>177</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
         <v>178</v>
       </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
       <c r="E57" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/object-repository/OneCSApp.xlsx
+++ b/src/test/resources/object-repository/OneCSApp.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096B866-2758-3E4F-B05A-44A7111C888D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E1878-1DC9-4F20-8762-6C676B56581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iOS" sheetId="1" r:id="rId1"/>
     <sheet name="Android" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="264">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -278,9 +289,6 @@
     <t>VERIFY_BUTTON</t>
   </si>
   <si>
-    <t>(//android.widget.Button[@index='1'])[3]</t>
-  </si>
-  <si>
     <t>TWO_FA</t>
   </si>
   <si>
@@ -329,10 +337,6 @@
     <t>CODE_TO_TYPE</t>
   </si>
   <si>
-    <t>//android.widget.TextView[@resource-id
-='sign-in-presented-confirmation-code']</t>
-  </si>
-  <si>
     <t>TAP_ACCOUNT</t>
   </si>
   <si>
@@ -474,9 +478,6 @@
     <t>SIGN_IN_STEP_1_OF_4</t>
   </si>
   <si>
-    <t>//android.widget.TextView[@text='Sign in step 1 of 4']</t>
-  </si>
-  <si>
     <t>close</t>
   </si>
   <si>
@@ -700,6 +701,129 @@
   </si>
   <si>
     <t>EDIT_DETAILS_BTN</t>
+  </si>
+  <si>
+    <t>(//android.widget.TextView)[1]</t>
+  </si>
+  <si>
+    <t>VERIFY_ACCOUNT_TEXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='I need help verifying my account']</t>
+  </si>
+  <si>
+    <t>HELP_VERIFY_ACCOUNT</t>
+  </si>
+  <si>
+    <t>SIX_DIGIT_INPUT_BOX</t>
+  </si>
+  <si>
+    <t>INCORRECT_CODE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Incorrect code']</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_POPUP</t>
+  </si>
+  <si>
+    <t>Loading_Spinner</t>
+  </si>
+  <si>
+    <t>(//android.widget.ProgressBar)[2]</t>
+  </si>
+  <si>
+    <t>(//android.widget.TextView)[5]</t>
+  </si>
+  <si>
+    <t>I_need_help_verifying_my_account</t>
+  </si>
+  <si>
+    <t>SWIPING_RECOVER_FULLSCREEN</t>
+  </si>
+  <si>
+    <t>(//android.view.View)[3]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Struggling to verify your account? Not to worry. Just tap the relevant button below to get back on track.']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Resend 6-digit code']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Check mobile number']</t>
+  </si>
+  <si>
+    <t>STRUGGLING_VERIFY_ACCOUNT</t>
+  </si>
+  <si>
+    <t>RESEND_SIX_DIGIT_CODE</t>
+  </si>
+  <si>
+    <t>CHECK_MOBILE_NUMBER</t>
+  </si>
+  <si>
+    <t>CLOSE_BUTTON_RECOVER</t>
+  </si>
+  <si>
+    <t>//android.widget.Button</t>
+  </si>
+  <si>
+    <t>MOBILE_NUM_USERNAME_WEB</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='Password']</t>
+  </si>
+  <si>
+    <t>MOBILE_NUM_PASSWORD_WEB</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='Login']</t>
+  </si>
+  <si>
+    <t>MOBILE_NUM_LOGIN_WEB</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='Username']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='Password']</t>
+  </si>
+  <si>
+    <t>WEB_USERNAME</t>
+  </si>
+  <si>
+    <t>WEB_PASSWORD</t>
+  </si>
+  <si>
+    <t>LOGIN_BUTTON</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@text='Memorable Word'])[2]</t>
+  </si>
+  <si>
+    <t>MEMORABLE_WORD</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='You’ll use this 6-digit PIN to log in to your OneCS account securely if you don’t enable Biometrics.']</t>
+  </si>
+  <si>
+    <t>CREATE_YOUR_PIN_TEXT</t>
+  </si>
+  <si>
+    <t>CREATE_YOUR_PIN_BOX</t>
+  </si>
+  <si>
+    <t>CONTINUE_BUTTON_DISABLED</t>
+  </si>
+  <si>
+    <t>STEP3_CONTINUE_BUTTON</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Confirm your PIN']</t>
+  </si>
+  <si>
+    <t>CONFIRM_PIN_TEXT</t>
   </si>
 </sst>
 </file>
@@ -1076,20 +1200,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1117,9 +1241,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1128,9 +1252,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1139,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1205,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1249,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1304,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1326,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1337,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1348,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1370,7 +1494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1381,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1414,18 +1538,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1447,7 +1571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1480,203 +1604,203 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>133</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>135</v>
       </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
         <v>198</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>199</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>200</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>201</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>202</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>203</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
         <v>204</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>205</v>
       </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
         <v>206</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>207</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
         <v>208</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
         <v>209</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>210</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>211</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>213</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>214</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>8</v>
       </c>
@@ -1688,20 +1812,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1729,9 +1853,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1740,9 +1864,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1751,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1762,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1773,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1784,7 +1908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1795,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1806,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -1817,117 +1941,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1938,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -1949,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1960,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1971,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -1982,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -1993,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2004,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2015,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2026,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2037,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -2048,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -2059,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -2070,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -2081,29 +2205,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -2111,10 +2235,10 @@
         <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -2125,86 +2249,86 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>145</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
       <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>150</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>152</v>
       </c>
       <c r="B43" t="s">
         <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
         <v>153</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>155</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>156</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>157</v>
       </c>
       <c r="B46" t="s">
         <v>158</v>
@@ -2213,18 +2337,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -2235,185 +2359,185 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
       <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>166</v>
       </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
       <c r="E51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
         <v>173</v>
       </c>
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
         <v>174</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
         <v>175</v>
       </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" t="s">
         <v>79</v>
       </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
         <v>182</v>
       </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
         <v>184</v>
       </c>
-      <c r="B60" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>188</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>187</v>
       </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>189</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>191</v>
       </c>
       <c r="B65" t="s">
         <v>190</v>
@@ -2422,31 +2546,311 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>192</v>
       </c>
       <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
         <v>193</v>
       </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>86</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
